--- a/team_specific_matrix/UAlbany_A.xlsx
+++ b/team_specific_matrix/UAlbany_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1924686192468619</v>
+        <v>0.2006802721088435</v>
       </c>
       <c r="C2">
-        <v>0.5648535564853556</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.004184100418410041</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004184100418410041</v>
+        <v>0.003401360544217687</v>
       </c>
       <c r="P2">
-        <v>0.1548117154811715</v>
+        <v>0.1564625850340136</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07949790794979079</v>
+        <v>0.08163265306122448</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006993006993006993</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C3">
-        <v>0.04895104895104895</v>
+        <v>0.05294117647058823</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04895104895104895</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6853146853146853</v>
+        <v>0.6941176470588235</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2097902097902098</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02857142857142857</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02857142857142857</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P4">
-        <v>0.6857142857142857</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2571428571428571</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05524861878453038</v>
+        <v>0.06132075471698113</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01104972375690608</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05524861878453038</v>
+        <v>0.0660377358490566</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2044198895027624</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02762430939226519</v>
+        <v>0.04245283018867924</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1823204419889503</v>
+        <v>0.1650943396226415</v>
       </c>
       <c r="R6">
-        <v>0.1049723756906077</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="S6">
-        <v>0.3591160220994475</v>
+        <v>0.3537735849056604</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1005586592178771</v>
+        <v>0.09734513274336283</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0111731843575419</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0223463687150838</v>
+        <v>0.03097345132743363</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1843575418994413</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0111731843575419</v>
+        <v>0.01327433628318584</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1340782122905028</v>
+        <v>0.1371681415929203</v>
       </c>
       <c r="R7">
-        <v>0.1005586592178771</v>
+        <v>0.08849557522123894</v>
       </c>
       <c r="S7">
-        <v>0.4357541899441341</v>
+        <v>0.4292035398230089</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0846774193548387</v>
+        <v>0.08521739130434783</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02217741935483871</v>
+        <v>0.01913043478260869</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07661290322580645</v>
+        <v>0.07478260869565218</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1028225806451613</v>
+        <v>0.1008695652173913</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01814516129032258</v>
+        <v>0.01913043478260869</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1895161290322581</v>
+        <v>0.1860869565217391</v>
       </c>
       <c r="R8">
-        <v>0.08669354838709678</v>
+        <v>0.08521739130434783</v>
       </c>
       <c r="S8">
-        <v>0.4193548387096774</v>
+        <v>0.4295652173913043</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09615384615384616</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0576923076923077</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04807692307692308</v>
+        <v>0.04511278195488722</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1730769230769231</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02884615384615385</v>
+        <v>0.02255639097744361</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1923076923076923</v>
+        <v>0.1804511278195489</v>
       </c>
       <c r="R9">
-        <v>0.04807692307692308</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="S9">
-        <v>0.3557692307692308</v>
+        <v>0.3458646616541353</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09840425531914894</v>
+        <v>0.102861562258314</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0150709219858156</v>
+        <v>0.01624129930394431</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05585106382978723</v>
+        <v>0.05259087393658159</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1294326241134752</v>
+        <v>0.1291569992266048</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02039007092198582</v>
+        <v>0.01778808971384378</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2384751773049645</v>
+        <v>0.234338747099768</v>
       </c>
       <c r="R10">
-        <v>0.07801418439716312</v>
+        <v>0.07965970610982212</v>
       </c>
       <c r="S10">
-        <v>0.3643617021276596</v>
+        <v>0.3673627223511214</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003401360544217687</v>
+        <v>0.002857142857142857</v>
       </c>
       <c r="G11">
-        <v>0.1700680272108843</v>
+        <v>0.1685714285714286</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07482993197278912</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>0.1904761904761905</v>
+        <v>0.1914285714285714</v>
       </c>
       <c r="L11">
-        <v>0.5408163265306123</v>
+        <v>0.54</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02040816326530612</v>
+        <v>0.01714285714285714</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7073170731707317</v>
+        <v>0.7397959183673469</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1951219512195122</v>
+        <v>0.1683673469387755</v>
       </c>
       <c r="K12">
-        <v>0.01829268292682927</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="L12">
-        <v>0.03658536585365853</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0426829268292683</v>
+        <v>0.03571428571428571</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5151515151515151</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4242424242424243</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03980099502487562</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1840796019900497</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="I15">
-        <v>0.02487562189054726</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="J15">
-        <v>0.3084577114427861</v>
+        <v>0.3034188034188034</v>
       </c>
       <c r="K15">
-        <v>0.05472636815920398</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02487562189054726</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0845771144278607</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2786069651741294</v>
+        <v>0.2735042735042735</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0125</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="I16">
-        <v>0.04375</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="J16">
-        <v>0.3875</v>
+        <v>0.3969072164948453</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0.1082474226804124</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03125</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="N16">
-        <v>0.00625</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="O16">
-        <v>0.0375</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.18125</v>
+        <v>0.1494845360824742</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01360544217687075</v>
+        <v>0.01996007984031936</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2131519274376417</v>
+        <v>0.2115768463073852</v>
       </c>
       <c r="I17">
-        <v>0.08390022675736962</v>
+        <v>0.08183632734530938</v>
       </c>
       <c r="J17">
-        <v>0.4172335600907029</v>
+        <v>0.4131736526946108</v>
       </c>
       <c r="K17">
-        <v>0.09070294784580499</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01360544217687075</v>
+        <v>0.01596806387225549</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07709750566893424</v>
+        <v>0.07385229540918163</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09070294784580499</v>
+        <v>0.08782435129740519</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01169590643274854</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2105263157894737</v>
+        <v>0.2107843137254902</v>
       </c>
       <c r="I18">
-        <v>0.02339181286549707</v>
+        <v>0.03431372549019608</v>
       </c>
       <c r="J18">
-        <v>0.3976608187134503</v>
+        <v>0.3872549019607843</v>
       </c>
       <c r="K18">
-        <v>0.1286549707602339</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03508771929824561</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07602339181286549</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1169590643274854</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01612903225806452</v>
+        <v>0.01534919416730622</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2670250896057348</v>
+        <v>0.2640061396776669</v>
       </c>
       <c r="I19">
-        <v>0.0456989247311828</v>
+        <v>0.05525709900230238</v>
       </c>
       <c r="J19">
-        <v>0.3700716845878136</v>
+        <v>0.3591711435149655</v>
       </c>
       <c r="K19">
-        <v>0.1272401433691756</v>
+        <v>0.1273983115886416</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01344086021505376</v>
+        <v>0.01841903300076746</v>
       </c>
       <c r="N19">
-        <v>0.001792114695340502</v>
+        <v>0.001534919416730622</v>
       </c>
       <c r="O19">
-        <v>0.05913978494623656</v>
+        <v>0.056792018419033</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09946236559139784</v>
+        <v>0.1020721412125863</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UAlbany_A.xlsx
+++ b/team_specific_matrix/UAlbany_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2006802721088435</v>
+        <v>0.1949685534591195</v>
       </c>
       <c r="C2">
-        <v>0.5476190476190477</v>
+        <v>0.5628930817610063</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01020408163265306</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003401360544217687</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="P2">
-        <v>0.1564625850340136</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08163265306122448</v>
+        <v>0.07547169811320754</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005882352941176471</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C3">
-        <v>0.05294117647058823</v>
+        <v>0.05291005291005291</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04117647058823529</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6941176470588235</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2058823529411765</v>
+        <v>0.1904761904761905</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02439024390243903</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P4">
-        <v>0.7317073170731707</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2195121951219512</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06132075471698113</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009433962264150943</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0660377358490566</v>
+        <v>0.0611353711790393</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1886792452830189</v>
+        <v>0.1921397379912664</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04245283018867924</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1650943396226415</v>
+        <v>0.1615720524017467</v>
       </c>
       <c r="R6">
-        <v>0.1132075471698113</v>
+        <v>0.1048034934497817</v>
       </c>
       <c r="S6">
-        <v>0.3537735849056604</v>
+        <v>0.3624454148471616</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09734513274336283</v>
+        <v>0.09541984732824428</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01769911504424779</v>
+        <v>0.01908396946564886</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03097345132743363</v>
+        <v>0.03435114503816794</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1858407079646018</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01327433628318584</v>
+        <v>0.01145038167938931</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1371681415929203</v>
+        <v>0.1679389312977099</v>
       </c>
       <c r="R7">
-        <v>0.08849557522123894</v>
+        <v>0.08015267175572519</v>
       </c>
       <c r="S7">
-        <v>0.4292035398230089</v>
+        <v>0.4160305343511451</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08521739130434783</v>
+        <v>0.0770440251572327</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01913043478260869</v>
+        <v>0.01729559748427673</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07478260869565218</v>
+        <v>0.07075471698113207</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1008695652173913</v>
+        <v>0.1037735849056604</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01913043478260869</v>
+        <v>0.01729559748427673</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1860869565217391</v>
+        <v>0.1886792452830189</v>
       </c>
       <c r="R8">
-        <v>0.08521739130434783</v>
+        <v>0.0959119496855346</v>
       </c>
       <c r="S8">
-        <v>0.4295652173913043</v>
+        <v>0.4292452830188679</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1278195488721804</v>
+        <v>0.1208053691275168</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04511278195488722</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04511278195488722</v>
+        <v>0.04697986577181208</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1578947368421053</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02255639097744361</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1804511278195489</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="R9">
-        <v>0.07518796992481203</v>
+        <v>0.08724832214765101</v>
       </c>
       <c r="S9">
-        <v>0.3458646616541353</v>
+        <v>0.3624161073825503</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.102861562258314</v>
+        <v>0.1026536312849162</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01624129930394431</v>
+        <v>0.01745810055865922</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05259087393658159</v>
+        <v>0.05237430167597765</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1291569992266048</v>
+        <v>0.1270949720670391</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01778808971384378</v>
+        <v>0.01885474860335196</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.234338747099768</v>
+        <v>0.2374301675977654</v>
       </c>
       <c r="R10">
-        <v>0.07965970610982212</v>
+        <v>0.07751396648044692</v>
       </c>
       <c r="S10">
-        <v>0.3673627223511214</v>
+        <v>0.3666201117318436</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.002857142857142857</v>
+        <v>0.002481389578163772</v>
       </c>
       <c r="G11">
-        <v>0.1685714285714286</v>
+        <v>0.1712158808933003</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K11">
-        <v>0.1914285714285714</v>
+        <v>0.1985111662531018</v>
       </c>
       <c r="L11">
-        <v>0.54</v>
+        <v>0.533498759305211</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01714285714285714</v>
+        <v>0.0173697270471464</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7397959183673469</v>
+        <v>0.7633928571428571</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1683673469387755</v>
+        <v>0.15625</v>
       </c>
       <c r="K12">
-        <v>0.02040816326530612</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="L12">
-        <v>0.03571428571428571</v>
+        <v>0.03125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03571428571428571</v>
+        <v>0.03125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.391304347826087</v>
+        <v>0.3877551020408163</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04347826086956522</v>
+        <v>0.04081632653061224</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03846153846153846</v>
+        <v>0.04198473282442748</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1752136752136752</v>
+        <v>0.1717557251908397</v>
       </c>
       <c r="I15">
-        <v>0.02136752136752137</v>
+        <v>0.01908396946564886</v>
       </c>
       <c r="J15">
-        <v>0.3034188034188034</v>
+        <v>0.3282442748091603</v>
       </c>
       <c r="K15">
-        <v>0.06837606837606838</v>
+        <v>0.06106870229007633</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02564102564102564</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09401709401709402</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2735042735042735</v>
+        <v>0.2557251908396946</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01030927835051546</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.211340206185567</v>
+        <v>0.2149532710280374</v>
       </c>
       <c r="I16">
-        <v>0.04639175257731959</v>
+        <v>0.04672897196261682</v>
       </c>
       <c r="J16">
-        <v>0.3969072164948453</v>
+        <v>0.3831775700934579</v>
       </c>
       <c r="K16">
-        <v>0.1082474226804124</v>
+        <v>0.1214953271028037</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02577319587628866</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="N16">
-        <v>0.005154639175257732</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="O16">
-        <v>0.04639175257731959</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1494845360824742</v>
+        <v>0.1495327102803738</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01996007984031936</v>
+        <v>0.01757469244288225</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2115768463073852</v>
+        <v>0.210896309314587</v>
       </c>
       <c r="I17">
-        <v>0.08183632734530938</v>
+        <v>0.08260105448154657</v>
       </c>
       <c r="J17">
-        <v>0.4131736526946108</v>
+        <v>0.4042179261862918</v>
       </c>
       <c r="K17">
-        <v>0.09580838323353294</v>
+        <v>0.1036906854130053</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01596806387225549</v>
+        <v>0.01757469244288225</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07385229540918163</v>
+        <v>0.070298769771529</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08782435129740519</v>
+        <v>0.09314586994727592</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01470588235294118</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2107843137254902</v>
+        <v>0.206140350877193</v>
       </c>
       <c r="I18">
-        <v>0.03431372549019608</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="J18">
-        <v>0.3872549019607843</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="K18">
-        <v>0.1176470588235294</v>
+        <v>0.1096491228070175</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0392156862745098</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07843137254901961</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1176470588235294</v>
+        <v>0.1271929824561404</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01534919416730622</v>
+        <v>0.01385041551246537</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2640061396776669</v>
+        <v>0.2617728531855956</v>
       </c>
       <c r="I19">
-        <v>0.05525709900230238</v>
+        <v>0.05540166204986149</v>
       </c>
       <c r="J19">
-        <v>0.3591711435149655</v>
+        <v>0.3566481994459834</v>
       </c>
       <c r="K19">
-        <v>0.1273983115886416</v>
+        <v>0.1308864265927978</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01841903300076746</v>
+        <v>0.01731301939058172</v>
       </c>
       <c r="N19">
-        <v>0.001534919416730622</v>
+        <v>0.001385041551246537</v>
       </c>
       <c r="O19">
-        <v>0.056792018419033</v>
+        <v>0.05955678670360111</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1020721412125863</v>
+        <v>0.103185595567867</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UAlbany_A.xlsx
+++ b/team_specific_matrix/UAlbany_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1949685534591195</v>
+        <v>0.1987767584097859</v>
       </c>
       <c r="C2">
-        <v>0.5628930817610063</v>
+        <v>0.5596330275229358</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01257861635220126</v>
+        <v>0.01223241590214067</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003144654088050315</v>
+        <v>0.003058103975535168</v>
       </c>
       <c r="P2">
-        <v>0.1509433962264151</v>
+        <v>0.1467889908256881</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07547169811320754</v>
+        <v>0.07951070336391437</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005291005291005291</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="C3">
-        <v>0.05291005291005291</v>
+        <v>0.05181347150259067</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03703703703703703</v>
+        <v>0.03626943005181347</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.7150259067357513</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1904761904761905</v>
+        <v>0.1917098445595855</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02272727272727273</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02272727272727273</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P4">
-        <v>0.7045454545454546</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06986899563318777</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008733624454148471</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0611353711790393</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1921397379912664</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03930131004366812</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1615720524017467</v>
+        <v>0.1581196581196581</v>
       </c>
       <c r="R6">
-        <v>0.1048034934497817</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S6">
-        <v>0.3624454148471616</v>
+        <v>0.3675213675213675</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09541984732824428</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01908396946564886</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03435114503816794</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1755725190839695</v>
+        <v>0.1740740740740741</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01145038167938931</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1679389312977099</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.08015267175572519</v>
+        <v>0.08148148148148149</v>
       </c>
       <c r="S7">
-        <v>0.4160305343511451</v>
+        <v>0.4185185185185185</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0770440251572327</v>
+        <v>0.07786259541984733</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01729559748427673</v>
+        <v>0.01679389312977099</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07075471698113207</v>
+        <v>0.07022900763358779</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1037735849056604</v>
+        <v>0.1083969465648855</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01729559748427673</v>
+        <v>0.01679389312977099</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1886792452830189</v>
+        <v>0.1862595419847328</v>
       </c>
       <c r="R8">
-        <v>0.0959119496855346</v>
+        <v>0.09465648854961832</v>
       </c>
       <c r="S8">
-        <v>0.4292452830188679</v>
+        <v>0.4290076335877863</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1208053691275168</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04026845637583892</v>
+        <v>0.0379746835443038</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04697986577181208</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1409395973154362</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02013422818791946</v>
+        <v>0.0189873417721519</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1812080536912752</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="R9">
-        <v>0.08724832214765101</v>
+        <v>0.08227848101265822</v>
       </c>
       <c r="S9">
-        <v>0.3624161073825503</v>
+        <v>0.3481012658227848</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1026536312849162</v>
+        <v>0.1008064516129032</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01745810055865922</v>
+        <v>0.01948924731182796</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05237430167597765</v>
+        <v>0.05174731182795699</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1270949720670391</v>
+        <v>0.1283602150537634</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01885474860335196</v>
+        <v>0.01881720430107527</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2374301675977654</v>
+        <v>0.2345430107526882</v>
       </c>
       <c r="R10">
-        <v>0.07751396648044692</v>
+        <v>0.0793010752688172</v>
       </c>
       <c r="S10">
-        <v>0.3666201117318436</v>
+        <v>0.3669354838709677</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.002481389578163772</v>
+        <v>0.002398081534772182</v>
       </c>
       <c r="G11">
-        <v>0.1712158808933003</v>
+        <v>0.1702637889688249</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07692307692307693</v>
+        <v>0.0815347721822542</v>
       </c>
       <c r="K11">
-        <v>0.1985111662531018</v>
+        <v>0.2014388489208633</v>
       </c>
       <c r="L11">
-        <v>0.533498759305211</v>
+        <v>0.5275779376498801</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0173697270471464</v>
+        <v>0.01678657074340528</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7633928571428571</v>
+        <v>0.7685589519650655</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.15625</v>
+        <v>0.1528384279475982</v>
       </c>
       <c r="K12">
-        <v>0.01785714285714286</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="L12">
-        <v>0.03125</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03125</v>
+        <v>0.03056768558951965</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3877551020408163</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04081632653061224</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04198473282442748</v>
+        <v>0.04089219330855019</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1717557251908397</v>
+        <v>0.1672862453531599</v>
       </c>
       <c r="I15">
-        <v>0.01908396946564886</v>
+        <v>0.02230483271375465</v>
       </c>
       <c r="J15">
-        <v>0.3282442748091603</v>
+        <v>0.3382899628252788</v>
       </c>
       <c r="K15">
-        <v>0.06106870229007633</v>
+        <v>0.05947955390334572</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02290076335877863</v>
+        <v>0.02230483271375465</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09923664122137404</v>
+        <v>0.09665427509293681</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2557251908396946</v>
+        <v>0.2527881040892193</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01401869158878505</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2149532710280374</v>
+        <v>0.2155963302752294</v>
       </c>
       <c r="I16">
-        <v>0.04672897196261682</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="J16">
-        <v>0.3831775700934579</v>
+        <v>0.3807339449541284</v>
       </c>
       <c r="K16">
-        <v>0.1214953271028037</v>
+        <v>0.1238532110091743</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02336448598130841</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="N16">
-        <v>0.004672897196261682</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="O16">
-        <v>0.04205607476635514</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1495327102803738</v>
+        <v>0.1513761467889908</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01757469244288225</v>
+        <v>0.01706484641638225</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.210896309314587</v>
+        <v>0.2098976109215017</v>
       </c>
       <c r="I17">
-        <v>0.08260105448154657</v>
+        <v>0.08361774744027303</v>
       </c>
       <c r="J17">
-        <v>0.4042179261862918</v>
+        <v>0.4078498293515359</v>
       </c>
       <c r="K17">
-        <v>0.1036906854130053</v>
+        <v>0.1023890784982935</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01757469244288225</v>
+        <v>0.01706484641638225</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.070298769771529</v>
+        <v>0.06996587030716724</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09314586994727592</v>
+        <v>0.09215017064846416</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01754385964912281</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.206140350877193</v>
+        <v>0.2067510548523207</v>
       </c>
       <c r="I18">
-        <v>0.03508771929824561</v>
+        <v>0.03375527426160337</v>
       </c>
       <c r="J18">
-        <v>0.3947368421052632</v>
+        <v>0.3966244725738396</v>
       </c>
       <c r="K18">
-        <v>0.1096491228070175</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03508771929824561</v>
+        <v>0.03375527426160337</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07456140350877193</v>
+        <v>0.08016877637130802</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1271929824561404</v>
+        <v>0.1223628691983122</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01385041551246537</v>
+        <v>0.01337792642140468</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2617728531855956</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="I19">
-        <v>0.05540166204986149</v>
+        <v>0.05752508361204013</v>
       </c>
       <c r="J19">
-        <v>0.3566481994459834</v>
+        <v>0.3551839464882943</v>
       </c>
       <c r="K19">
-        <v>0.1308864265927978</v>
+        <v>0.1311036789297659</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01731301939058172</v>
+        <v>0.01806020066889632</v>
       </c>
       <c r="N19">
-        <v>0.001385041551246537</v>
+        <v>0.001337792642140468</v>
       </c>
       <c r="O19">
-        <v>0.05955678670360111</v>
+        <v>0.0588628762541806</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.103185595567867</v>
+        <v>0.1030100334448161</v>
       </c>
     </row>
   </sheetData>
